--- a/biology/Zoologie/Anolis_ricordii/Anolis_ricordii.xlsx
+++ b/biology/Zoologie/Anolis_ricordii/Anolis_ricordii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis ricordii est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis ricordii est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 160 mm et les femelles jusqu'à 151 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 160 mm et les femelles jusqu'à 151 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 décembre 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 décembre 2014) :
 Anolis ricordii leberi Williams, 1965
 Anolis ricordii ricordii Duméril &amp; Bibron, 1837
 Anolis ricordii subsolanus Schwartz, 1974
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alexandre Ricord (1798–1876)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alexandre Ricord (1798–1876).
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1837 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. Librairie. Encyclopédique Roret, Paris, vol. 4, p. 1-570 (texte intégral).
 Schwartz, 1974 : An analysis of variation in the Hispaniolan giant anole, Anolis ricordi Duméril and Bibron. Bulletin of the Museum of Comparative Zoology, no 146, p. 86-146 (texte intégral).
